--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_63.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:16.179070', '0:00:27.510408')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:18.403560')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.096875</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:05.400000', '0:00:13.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1325187969924812</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:00:49.080000', '0:00:57.840000'), ('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.2, 73.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.26, 29.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
